--- a/data_config/BattleBoxShopItem.xlsx
+++ b/data_config/BattleBoxShopItem.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
   <si>
     <t>#</t>
   </si>
@@ -41,6 +41,9 @@
     <t>describe</t>
   </si>
   <si>
+    <t>quality</t>
+  </si>
+  <si>
     <t>boxIdList</t>
   </si>
   <si>
@@ -77,6 +80,9 @@
     <t>介绍</t>
   </si>
   <si>
+    <t>宝箱组品质（绿 - 红）</t>
+  </si>
+  <si>
     <t>刷出 宝箱 id 列表</t>
   </si>
   <si>
@@ -98,6 +104,9 @@
     <t>测试绿色品质项</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>100</t>
   </si>
   <si>
@@ -131,12 +140,12 @@
     <t>测试紫色品质项</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>102</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>10004</t>
   </si>
   <si>
@@ -155,10 +164,10 @@
     <t>测试红色品质项</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>104</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -1138,23 +1147,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="6" width="16.75" customWidth="1"/>
-    <col min="7" max="8" width="10.375" customWidth="1"/>
-    <col min="9" max="9" width="8.875" customWidth="1"/>
+    <col min="4" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="7" width="16.75" customWidth="1"/>
+    <col min="8" max="9" width="10.375" customWidth="1"/>
+    <col min="10" max="10" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1182,208 +1191,232 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:9">
+    <row r="3" ht="93" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>27</v>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>39</v>
+      <c r="J7" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data_config/BattleBoxShopItem.xlsx
+++ b/data_config/BattleBoxShopItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13965" windowHeight="11670"/>
+    <workbookView windowWidth="18360" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
   <si>
     <t>#</t>
   </si>
@@ -41,9 +41,18 @@
     <t>describe</t>
   </si>
   <si>
+    <t>iconResId</t>
+  </si>
+  <si>
     <t>quality</t>
   </si>
   <si>
+    <t>costItemId</t>
+  </si>
+  <si>
+    <t>costCount</t>
+  </si>
+  <si>
     <t>boxIdList</t>
   </si>
   <si>
@@ -80,9 +89,18 @@
     <t>介绍</t>
   </si>
   <si>
+    <t>图标资源id</t>
+  </si>
+  <si>
     <t>宝箱组品质（绿 - 红）</t>
   </si>
   <si>
+    <t>花费道具id</t>
+  </si>
+  <si>
+    <t>花费数量</t>
+  </si>
+  <si>
     <t>刷出 宝箱 id 列表</t>
   </si>
   <si>
@@ -101,12 +119,21 @@
     <t>10001</t>
   </si>
   <si>
+    <t>绿箱子</t>
+  </si>
+  <si>
     <t>测试绿色品质项</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>500001</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
     <t>100</t>
   </si>
   <si>
@@ -125,9 +152,15 @@
     <t>10002</t>
   </si>
   <si>
+    <t>蓝箱子</t>
+  </si>
+  <si>
     <t>测试蓝色品质项</t>
   </si>
   <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>101</t>
   </si>
   <si>
@@ -137,21 +170,33 @@
     <t>10003</t>
   </si>
   <si>
+    <t>紫箱子</t>
+  </si>
+  <si>
     <t>测试紫色品质项</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>1200</t>
+  </si>
+  <si>
     <t>102</t>
   </si>
   <si>
     <t>10004</t>
   </si>
   <si>
+    <t>橙箱子</t>
+  </si>
+  <si>
     <t>测试橙色品质项</t>
   </si>
   <si>
+    <t>2400</t>
+  </si>
+  <si>
     <t>103</t>
   </si>
   <si>
@@ -161,10 +206,16 @@
     <t>10005</t>
   </si>
   <si>
+    <t>红箱子</t>
+  </si>
+  <si>
     <t>测试红色品质项</t>
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>4800</t>
   </si>
   <si>
     <t>104</t>
@@ -1147,23 +1198,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="7" width="16.75" customWidth="1"/>
-    <col min="8" max="9" width="10.375" customWidth="1"/>
-    <col min="10" max="10" width="8.875" customWidth="1"/>
+    <col min="4" max="8" width="18.125" customWidth="1"/>
+    <col min="9" max="10" width="16.75" customWidth="1"/>
+    <col min="11" max="12" width="10.375" customWidth="1"/>
+    <col min="13" max="13" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1194,229 +1245,291 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:10">
+    <row r="3" ht="93" customHeight="1" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>30</v>
+      <c r="K6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data_config/BattleBoxShopItem.xlsx
+++ b/data_config/BattleBoxShopItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18360" windowHeight="11670"/>
+    <workbookView windowWidth="20265" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,91 +134,91 @@
     <t>300</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
+    <t>蓝箱子</t>
+  </si>
+  <si>
+    <t>测试蓝色品质项</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>10003</t>
+  </si>
+  <si>
+    <t>紫箱子</t>
+  </si>
+  <si>
+    <t>测试紫色品质项</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>10004</t>
+  </si>
+  <si>
+    <t>橙箱子</t>
+  </si>
+  <si>
+    <t>测试橙色品质项</t>
+  </si>
+  <si>
+    <t>2400</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>10005</t>
+  </si>
+  <si>
+    <t>红箱子</t>
+  </si>
+  <si>
+    <t>测试红色品质项</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4800</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
     <t>100</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>10002</t>
-  </si>
-  <si>
-    <t>蓝箱子</t>
-  </si>
-  <si>
-    <t>测试蓝色品质项</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>10003</t>
-  </si>
-  <si>
-    <t>紫箱子</t>
-  </si>
-  <si>
-    <t>测试紫色品质项</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>10004</t>
-  </si>
-  <si>
-    <t>橙箱子</t>
-  </si>
-  <si>
-    <t>测试橙色品质项</t>
-  </si>
-  <si>
-    <t>2400</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>10005</t>
-  </si>
-  <si>
-    <t>红箱子</t>
-  </si>
-  <si>
-    <t>测试红色品质项</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>4800</t>
-  </si>
-  <si>
-    <t>104</t>
   </si>
 </sst>
 </file>
@@ -1200,8 +1200,8 @@
   <sheetPr/>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1364,16 +1364,16 @@
         <v>35</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1381,38 +1381,38 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1420,38 +1420,38 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="J6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1459,38 +1459,38 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1498,38 +1498,38 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="J8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/data_config/BattleBoxShopItem.xlsx
+++ b/data_config/BattleBoxShopItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20265" windowHeight="11700"/>
+    <workbookView windowWidth="17055" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,6 +137,9 @@
     <t>1</t>
   </si>
   <si>
+    <t>500</t>
+  </si>
+  <si>
     <t>1000</t>
   </si>
   <si>
@@ -159,9 +162,6 @@
   </si>
   <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>500</t>
   </si>
   <si>
     <t>10003</t>
@@ -1200,7 +1200,7 @@
   <sheetPr/>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -1373,7 +1373,7 @@
         <v>36</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
@@ -1397,22 +1397,22 @@
         <v>33</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1448,10 +1448,10 @@
         <v>48</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>33</v>
